--- a/source_code/data/gt.xlsx
+++ b/source_code/data/gt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64619D8-3E72-4A62-A0E8-FC5B1508A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF9EEF-6B2C-4098-88E2-737D6E581AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30840" yWindow="2280" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>23089.46</v>
+        <v>25397.9</v>
       </c>
       <c r="B2">
         <v>14.526</v>
@@ -409,7 +409,8 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>22407.858</v>
+        <f>'2025'!A2*(1-0.3*0.2)</f>
+        <v>23874.026000000002</v>
       </c>
       <c r="B2">
         <v>14.526</v>
@@ -438,7 +439,8 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>22038.117999999999</v>
+        <f>'2025'!A2*(1-0.3*0.4)</f>
+        <v>22350.152000000002</v>
       </c>
       <c r="B2">
         <v>14.526</v>
@@ -467,7 +469,8 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>21668.378000000001</v>
+        <f>'2025'!A2*(1-0.3*0.6)</f>
+        <v>20826.278000000002</v>
       </c>
       <c r="B2">
         <v>14.526</v>
@@ -496,7 +499,8 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>21327.575000000001</v>
+        <f>'2025'!A2*(1-0.3*0.8)</f>
+        <v>19302.404000000002</v>
       </c>
       <c r="B2">
         <v>14.526</v>
@@ -525,7 +529,8 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>20986.772000000001</v>
+        <f>'2025'!A2*(1-0.3*1)</f>
+        <v>17778.53</v>
       </c>
       <c r="B2">
         <v>14.526</v>

--- a/source_code/data/gt.xlsx
+++ b/source_code/data/gt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FF9EEF-6B2C-4098-88E2-737D6E581AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451A15F-5ADE-461D-82FD-2256DA6414AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30840" yWindow="2280" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2070" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
         <v>25397.9</v>
       </c>
       <c r="B2">
-        <v>14.526</v>
+        <v>4.8419999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -413,7 +413,7 @@
         <v>23874.026000000002</v>
       </c>
       <c r="B2">
-        <v>14.526</v>
+        <v>4.8419999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -443,7 +443,7 @@
         <v>22350.152000000002</v>
       </c>
       <c r="B2">
-        <v>14.526</v>
+        <v>4.8419999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -473,7 +473,7 @@
         <v>20826.278000000002</v>
       </c>
       <c r="B2">
-        <v>14.526</v>
+        <v>4.8419999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -503,7 +503,7 @@
         <v>19302.404000000002</v>
       </c>
       <c r="B2">
-        <v>14.526</v>
+        <v>4.8419999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
         <v>17778.53</v>
       </c>
       <c r="B2">
-        <v>14.526</v>
+        <v>4.8419999999999996</v>
       </c>
     </row>
   </sheetData>
